--- a/medicine/Hématologie/Rodgers/Rodgers.xlsx
+++ b/medicine/Hématologie/Rodgers/Rodgers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système Chido/Rodgers est un système de groupe sanguin. Il porte le numéro 017 de la nomenclature de la Société internationale de transfusion sanguine, et comporte 9 déterminants antigéniques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système Chido/Rodgers est un système de groupe sanguin. Il porte le numéro 017 de la nomenclature de la Société internationale de transfusion sanguine, et comporte 9 déterminants antigéniques.
 Ce système doit son nom aux personnes chez lesquelles ont été trouvés les premiers anticorps, anti Chido (Ch) en 1967, ant Rodgers (Rg) en 1976. Les antigènes correspondant sont portés par les deux protéines C4 du Complément : C4B (Chido) OMIM (en) 120820  et C4A (Rodgers) OMIM (en) 120810. Les sujets ayant un déficit en C4 sont donc Ch-, Rg-, et sont prédisposés à des maladies auto-immunes.
 Ces deux glycoprotéines, dont les gènes situés en 6p21.3 comprennent 41 exons répartis sur 22 kilobase pour C4A et 22 ou 15 kilobases (après perte d'un intron de 16 kb) pour C4B, présentent 99 % d'homologie. Ces gènes sont liés au système HLA, situés entre HLA-DR et HLA-B, sur le bras court du chromosome 6. Une forte association entre les phénotypes Rg-négatif et HLA-B8 a été notée.  Cette grande homologie fait que certains épitopes sont communs aux deux protéines (par exemple Ch3 : acide aminé sérine en 1157 sur C4 A ou B).
 Ces protéines sont des protéines plasmatiques adsorbées passivement (comme pour les antigènes du système Lewis) sur la membrane du globule rouge.
